--- a/biology/Médecine/1676_en_santé_et_médecine/1676_en_santé_et_médecine.xlsx
+++ b/biology/Médecine/1676_en_santé_et_médecine/1676_en_santé_et_médecine.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>1676_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1676_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Cet article présente les faits marquants de l'année 1676 en santé et médecine.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>1676_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1676_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,11 +523,13 @@
           <t>Événements</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>31 décembre : Armand-Jean de Mauvillain devient docteur-régent de la Faculté de médecine de Paris[1].
-Fondation de l'hôpital général de Montauban, en Languedoc, par fusion de l'hôpital Saint-Jacques, dit « hôpital Lautier », avec les hôpitaux de Paria et de Montauriol[2].
-Création d'une maîtrise pour les chirurgiens à l’École de Médecine et de Pharmacie de Limoges[3].</t>
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>31 décembre : Armand-Jean de Mauvillain devient docteur-régent de la Faculté de médecine de Paris.
+Fondation de l'hôpital général de Montauban, en Languedoc, par fusion de l'hôpital Saint-Jacques, dit « hôpital Lautier », avec les hôpitaux de Paria et de Montauriol.
+Création d'une maîtrise pour les chirurgiens à l’École de Médecine et de Pharmacie de Limoges.</t>
         </is>
       </c>
     </row>
@@ -525,7 +539,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>1676_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1676_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -543,11 +557,13 @@
           <t>Publications</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Denis Dodart : Mémoires pour servir à l'histoire des plantes[4].
-Thomas Sydenham : troisième édition de Methodus curandi febres sous le titre de Observationes Medicae[5].
-Thomas Bartholin : Antiquitatum veteris puerperii synopsis[6].</t>
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Denis Dodart : Mémoires pour servir à l'histoire des plantes.
+Thomas Sydenham : troisième édition de Methodus curandi febres sous le titre de Observationes Medicae.
+Thomas Bartholin : Antiquitatum veteris puerperii synopsis.</t>
         </is>
       </c>
     </row>
@@ -557,7 +573,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>1676_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1676_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -575,7 +591,9 @@
           <t>Naissance</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Michel-Louis Reneaulme de Lagaranne (mort en 1739), médecin et botaniste français.</t>
         </is>
@@ -587,7 +605,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>1676_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1676_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -605,7 +623,9 @@
           <t>Décès</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>14 ou 16 février : Abraham Bosse (né entre 1602 et 1604), graveur d'ouvrages techniques en médecine.</t>
         </is>
@@ -617,7 +637,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>1676_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1676_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -635,7 +655,9 @@
           <t>Référence</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t xml:space="preserve">
 ↑ Christian Warolin, « Armand-Jean de Mauvillain, le jeune (1651-1677), séminariste, docteur-régent de la Faculté de médecine de Paris, et le placet adressé au roi, par Molière, lors de la représentation du Tartuffe, le 5 février 1669 », Dix-septième siècle, vol. 3, no 232,‎ 2006, p. 529 - 533 (ISBN 9782130555223, lire en ligne, consulté le 23 septembre 2018).
